--- a/spreadsheet/macrofree/ai_lz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/ai_lz_checklist.en.xlsx
@@ -8951,7 +8951,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Enforce Microsoft Entra ID Conditional Access policies for any user with rights to Azure environments.</t>
+          <t>Enforce Microsoft Entra ID Conditional Access policies for any user with rights to Azure environments</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
